--- a/biology/Botanique/Tuctoria/Tuctoria.xlsx
+++ b/biology/Botanique/Tuctoria/Tuctoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Tuctoria est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae[2], originaire d'Amérique du Nord, qui comprend trois espèces.
-Ce sont des plantes herbacées annuelles aux tiges ascendantes ou décombantes. L'inflorescence, très dense, est un épi ou un racème. Les épillets fertiles comptent une trentaine de fleurons[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tuctoria est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique du Nord, qui comprend trois espèces.
+Ce sont des plantes herbacées annuelles aux tiges ascendantes ou décombantes. L'inflorescence, très dense, est un épi ou un racème. Les épillets fertiles comptent une trentaine de fleurons.
 Étymologie
-le nom générique « Tuctoria » est une anagramme du nom d'un genre apparenté, Orcuttia[3].</t>
+le nom générique « Tuctoria » est une anagramme du nom d'un genre apparenté, Orcuttia.</t>
         </is>
       </c>
     </row>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avril 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avril 2017) :
 Tuctoria fragilis (Swallen) Reeder (1982)
 Tuctoria greenei (Vasey) Reeder (1982)
 Tuctoria mucronata (Crampton) Reeder (1982)</t>
